--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_5.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_5.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9820450333058744</v>
+        <v>0.9407370055282235</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8014958040516301</v>
+        <v>0.7005757075649057</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7803176808637797</v>
+        <v>0.7777544541249241</v>
       </c>
       <c r="E2" t="n">
-        <v>0.976092981918533</v>
+        <v>0.9503319796840249</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07473802820503969</v>
+        <v>0.1902512319630876</v>
       </c>
       <c r="G2" t="n">
-        <v>1.327398472334526</v>
+        <v>2.002251622235568</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7857909176375217</v>
+        <v>0.7949594310579826</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09792262816402229</v>
+        <v>0.1927731084774235</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4801367575935997</v>
+        <v>1.226862516286308</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2733825674856385</v>
+        <v>0.4361779819787876</v>
       </c>
       <c r="L2" t="n">
-        <v>2.149117868424035</v>
+        <v>0.9193014543363043</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2776880696412302</v>
+        <v>0.4430473491769355</v>
       </c>
       <c r="N2" t="n">
-        <v>135.1875324746602</v>
+        <v>37.31881961353089</v>
       </c>
       <c r="O2" t="n">
-        <v>276.5227050178765</v>
+        <v>74.28340320175671</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9817574751563639</v>
+        <v>0.9405951756986997</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8011753111490774</v>
+        <v>0.7003739164244934</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7796785971491977</v>
+        <v>0.7777901719417291</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9758682428425209</v>
+        <v>0.9504448513045782</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07593499667926903</v>
+        <v>0.1907065464478945</v>
       </c>
       <c r="G3" t="n">
-        <v>1.329541609849631</v>
+        <v>2.003601000520668</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7880768830283786</v>
+        <v>0.7948316704983093</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09884315455084575</v>
+        <v>0.1923350275349076</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4848617505692762</v>
+        <v>1.230695483270746</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2755630539083007</v>
+        <v>0.4366996066495761</v>
       </c>
       <c r="L3" t="n">
-        <v>2.16752158999271</v>
+        <v>0.9191083243556761</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2799028965453625</v>
+        <v>0.4435771889148555</v>
       </c>
       <c r="N3" t="n">
-        <v>135.1557552230623</v>
+        <v>37.31403887689907</v>
       </c>
       <c r="O3" t="n">
-        <v>276.4909277662787</v>
+        <v>74.27862246512488</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9815001287809548</v>
+        <v>0.940449986926691</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8004800489688868</v>
+        <v>0.7001693042379297</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7795911674356212</v>
+        <v>0.7778237642219097</v>
       </c>
       <c r="E4" t="n">
-        <v>0.975042380368266</v>
+        <v>0.950557499900096</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0770062078372428</v>
+        <v>0.1911726441027303</v>
       </c>
       <c r="G4" t="n">
-        <v>1.334190831249954</v>
+        <v>2.004969243154372</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7883896140443758</v>
+        <v>0.7947115128598953</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1022258693547375</v>
+        <v>0.1918978122042899</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4873112214016115</v>
+        <v>1.234624920769612</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2774999240310577</v>
+        <v>0.4372329403221243</v>
       </c>
       <c r="L4" t="n">
-        <v>2.183991758018891</v>
+        <v>0.9189106204959196</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2818702704363932</v>
+        <v>0.4441189220596082</v>
       </c>
       <c r="N4" t="n">
-        <v>135.1277384782306</v>
+        <v>37.30915672675505</v>
       </c>
       <c r="O4" t="n">
-        <v>276.462911021447</v>
+        <v>74.27374031498087</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9801932718106525</v>
+        <v>0.9403013495319639</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7979784187579901</v>
+        <v>0.6999618076940195</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7771437822242816</v>
+        <v>0.7778551007377714</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9748742657853851</v>
+        <v>0.9506697489586692</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08244603486506792</v>
+        <v>0.1916498128269009</v>
       </c>
       <c r="G5" t="n">
-        <v>1.350919243989167</v>
+        <v>2.006356773498934</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7971437690377894</v>
+        <v>0.7945994239596536</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1029144630443521</v>
+        <v>0.1914621475692355</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5036000535766405</v>
+        <v>1.238643870862642</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2871341757176737</v>
+        <v>0.4377782690208605</v>
       </c>
       <c r="L5" t="n">
-        <v>2.267630604118239</v>
+        <v>0.9187082206392699</v>
       </c>
       <c r="M5" t="n">
-        <v>0.291656251956355</v>
+        <v>0.4446728391402209</v>
       </c>
       <c r="N5" t="n">
-        <v>134.9912226450417</v>
+        <v>37.30417092759255</v>
       </c>
       <c r="O5" t="n">
-        <v>276.3263951882581</v>
+        <v>74.26875451581837</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9801937053464705</v>
+        <v>0.9401492300948495</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7974509640083288</v>
+        <v>0.6997513629158322</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7783929608225919</v>
+        <v>0.7778841582687805</v>
       </c>
       <c r="E6" t="n">
-        <v>0.975701056669332</v>
+        <v>0.9507816828730072</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08244423026065141</v>
+        <v>0.1921381599071402</v>
       </c>
       <c r="G6" t="n">
-        <v>1.354446336328858</v>
+        <v>2.007764018699681</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7926755296231704</v>
+        <v>0.7944954868560864</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09952794549447383</v>
+        <v>0.1910277060820631</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4983454251137524</v>
+        <v>1.242696276758992</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2871310332594709</v>
+        <v>0.4383356703567943</v>
       </c>
       <c r="L6" t="n">
-        <v>2.267602857825885</v>
+        <v>0.918501079278093</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2916530600075768</v>
+        <v>0.4452390189899987</v>
       </c>
       <c r="N6" t="n">
-        <v>134.991266422142</v>
+        <v>37.29908116576055</v>
       </c>
       <c r="O6" t="n">
-        <v>276.3264389653584</v>
+        <v>74.26366475398636</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9778295185111107</v>
+        <v>0.939993556253043</v>
       </c>
       <c r="C7" t="n">
-        <v>0.794987604815854</v>
+        <v>0.6995379200895446</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7736135116999405</v>
+        <v>0.7779108444879886</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9739339812013674</v>
+        <v>0.9508932993514742</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09228522107913727</v>
+        <v>0.192637917647229</v>
       </c>
       <c r="G7" t="n">
-        <v>1.370918830591664</v>
+        <v>2.00919131186188</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8097713420065116</v>
+        <v>0.794400031797335</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1067658483311058</v>
+        <v>0.1905944966371429</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5362008268142162</v>
+        <v>1.246778907534857</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3037848269402823</v>
+        <v>0.438905362973875</v>
       </c>
       <c r="L7" t="n">
-        <v>2.418910815288918</v>
+        <v>0.9182890978764842</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3085691342911749</v>
+        <v>0.4458176836963147</v>
       </c>
       <c r="N7" t="n">
-        <v>134.7657425372257</v>
+        <v>37.29388585295121</v>
       </c>
       <c r="O7" t="n">
-        <v>276.1009150804421</v>
+        <v>74.25846944117703</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9747816066304883</v>
+        <v>0.9398342433175687</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7906098874226367</v>
+        <v>0.6993214162617464</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7714435026856985</v>
+        <v>0.7779353011057895</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9704776170262503</v>
+        <v>0.9510044392306658</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1049722356518217</v>
+        <v>0.1931493579231012</v>
       </c>
       <c r="G8" t="n">
-        <v>1.400192646957643</v>
+        <v>2.010639073955275</v>
       </c>
       <c r="H8" t="n">
-        <v>0.817533338426103</v>
+        <v>0.7943125518935376</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1209230411171781</v>
+        <v>0.1901631369845681</v>
       </c>
       <c r="J8" t="n">
-        <v>0.539562854508152</v>
+        <v>1.250894654853861</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3239941907686335</v>
+        <v>0.4394876083840148</v>
       </c>
       <c r="L8" t="n">
-        <v>2.613977175648749</v>
+        <v>0.918072161113285</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3290967753978704</v>
+        <v>0.4464090988896324</v>
       </c>
       <c r="N8" t="n">
-        <v>134.5081187723079</v>
+        <v>37.28858302823015</v>
       </c>
       <c r="O8" t="n">
-        <v>275.8432913155244</v>
+        <v>74.25316661645597</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9737974249570861</v>
+        <v>0.9396711991491026</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7813776082265418</v>
+        <v>0.6991017857156669</v>
       </c>
       <c r="D9" t="n">
-        <v>0.786216447293931</v>
+        <v>0.7779571317830484</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9733048618632442</v>
+        <v>0.9511150086637086</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1090689181418916</v>
+        <v>0.1936727765284477</v>
       </c>
       <c r="G9" t="n">
-        <v>1.461928940452666</v>
+        <v>2.012107744428214</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7646913721469997</v>
+        <v>0.7942344648267978</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1093427075114481</v>
+        <v>0.1897339913658247</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3865132996561492</v>
+        <v>1.255040936454735</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3302558374077461</v>
+        <v>0.4400826928299359</v>
       </c>
       <c r="L9" t="n">
-        <v>2.67696480274649</v>
+        <v>0.9178501435221822</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3354570367121987</v>
+        <v>0.4470135553207105</v>
       </c>
       <c r="N9" t="n">
-        <v>134.4315506400489</v>
+        <v>37.28317052591262</v>
       </c>
       <c r="O9" t="n">
-        <v>275.7667231832654</v>
+        <v>74.24775411413844</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9686144165676202</v>
+        <v>0.9395043391147331</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7786586512630354</v>
+        <v>0.6988789819693841</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7876377492587353</v>
+        <v>0.7779765022803344</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9643090633923348</v>
+        <v>0.951225098806707</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1306433289329516</v>
+        <v>0.1942084451592204</v>
       </c>
       <c r="G10" t="n">
-        <v>1.48011061818728</v>
+        <v>2.013597634105524</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7596074574307179</v>
+        <v>0.7941651776811716</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1461893031723356</v>
+        <v>0.189306705982926</v>
       </c>
       <c r="J10" t="n">
-        <v>0.447203788287724</v>
+        <v>1.259218614347805</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3614461632566482</v>
+        <v>0.4406908725617316</v>
       </c>
       <c r="L10" t="n">
-        <v>3.00867733967231</v>
+        <v>0.9176229298583599</v>
       </c>
       <c r="M10" t="n">
-        <v>0.367138579014334</v>
+        <v>0.4476313132753253</v>
       </c>
       <c r="N10" t="n">
-        <v>134.0705686978331</v>
+        <v>37.27764647430751</v>
       </c>
       <c r="O10" t="n">
-        <v>275.4057412410495</v>
+        <v>74.24223006253334</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9639846585464961</v>
+        <v>0.9393336849528249</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7721159714941674</v>
+        <v>0.6986529584857277</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7878246949659553</v>
+        <v>0.7779932543541633</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9577602533685152</v>
+        <v>0.9513347722959219</v>
       </c>
       <c r="F11" t="n">
-        <v>0.149914820295756</v>
+        <v>0.1947562940290263</v>
       </c>
       <c r="G11" t="n">
-        <v>1.52386154792797</v>
+        <v>2.015109054181476</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7589387634757269</v>
+        <v>0.7941052564844268</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1730130871630471</v>
+        <v>0.1888810377300137</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4363170929194031</v>
+        <v>1.263425792964221</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3871883524794567</v>
+        <v>0.4413120143719478</v>
       </c>
       <c r="L11" t="n">
-        <v>3.304981853024252</v>
+        <v>0.9173905497229956</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3932861819846531</v>
+        <v>0.4482622374481384</v>
       </c>
       <c r="N11" t="n">
-        <v>133.7953760217541</v>
+        <v>37.2720125524952</v>
       </c>
       <c r="O11" t="n">
-        <v>275.1305485649705</v>
+        <v>74.23659614072102</v>
       </c>
     </row>
   </sheetData>
